--- a/biology/Botanique/Jonathan_(pomme)/Jonathan_(pomme).xlsx
+++ b/biology/Botanique/Jonathan_(pomme)/Jonathan_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonathan est le nom d'une variété de pommes apparue en 1826 aux États-Unis. Elle est étroitement liée à la variété Esopus Spitzenburg.
-Cette variété est depuis plus d'un siècle une des cinq variétés les plus utilisées par les obtenteurs pour créer de nouvelles variétés. En effet, 64 %, des 439 variétés commerciales étudiées par Noiton et Alspach[1] en 1996 utilisent depuis plus d'un siècle seulement cinq géniteurs (Mc Intosh (101 cultivars), Golden delicious (87 cultivars), Jonathan (74 cultivars), Red delicious (56 cultivars) ou Cox's Orange Pippin (59 cultivars), respectivement quatre américaines et une anglaise) ou leur descendance[2].
+Cette variété est depuis plus d'un siècle une des cinq variétés les plus utilisées par les obtenteurs pour créer de nouvelles variétés. En effet, 64 %, des 439 variétés commerciales étudiées par Noiton et Alspach en 1996 utilisent depuis plus d'un siècle seulement cinq géniteurs (Mc Intosh (101 cultivars), Golden delicious (87 cultivars), Jonathan (74 cultivars), Red delicious (56 cultivars) ou Cox's Orange Pippin (59 cultivars), respectivement quatre américaines et une anglaise) ou leur descendance.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phillip Rick,
 Ulster Seedling.</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Épicarpe: principalement rouge.
 Calibre: moyen.
@@ -575,9 +591,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pomme Jonathan serait le fruit d'un semis d'Esopus Spitzenburg de 1826 à la ferme de Philip Rick à Woodstock dans le comté d'Ulster dans l'État de New York. Elle se serait appelée à l'origine la "pomme de Rick " mais elle fut rapidement rebaptisée "Jonathan" par le juge Buel, Président de la Société d'horticulture d'Albany, en hommage à Jonathan Hasbrouck, qui découvrit la pomme et la porta à l'attention de Buel[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pomme Jonathan serait le fruit d'un semis d'Esopus Spitzenburg de 1826 à la ferme de Philip Rick à Woodstock dans le comté d'Ulster dans l'État de New York. Elle se serait appelée à l'origine la "pomme de Rick " mais elle fut rapidement rebaptisée "Jonathan" par le juge Buel, Président de la Société d'horticulture d'Albany, en hommage à Jonathan Hasbrouck, qui découvrit la pomme et la porta à l'attention de Buel.
 </t>
         </is>
       </c>
@@ -606,11 +624,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde.
 Groupe de floraison: B
-S-génotype: S7S9[4].
+S-génotype: S7S9.
 Pollinisée par: Reinette Baumann, Belle-Fille Normande, Grand Alexandre, James Grieve, Grenadier, Golden Delicious, Granny Smith.
 </t>
         </is>
@@ -640,10 +660,12 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Mutants:
-Jonathan rouge[5]
+Jonathan rouge
 Descendants:
 Jonagold - un croisement entre Jonathan et Golden Delicious,
 Jonamac
@@ -685,9 +707,11 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tavelure: très susceptible[6]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tavelure: très susceptible
 Mildiou: très susceptible
 Rouille: très susceptible
 Feu Bactérien: très susceptible
@@ -720,7 +744,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar: peu vigoureux
 Mature de fin septembre à janvier
